--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,165 +55,162 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooks</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>gift</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -223,46 +220,52 @@
     <t>well</t>
   </si>
   <si>
+    <t>last</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>make</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>buy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -737,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -745,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2790697674418605</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
@@ -795,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +824,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8985507246376812</v>
+        <v>0.8984375</v>
       </c>
       <c r="L6">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M6">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +850,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8637770897832817</v>
+        <v>0.871517027863777</v>
       </c>
       <c r="L7">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M7">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +876,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8043478260869565</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +902,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.8</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -925,13 +928,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7727272727272727</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -951,13 +954,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7532467532467533</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L11">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="M11">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -977,13 +980,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7272727272727273</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L12">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -995,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1003,13 +1006,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.684931506849315</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1029,13 +1032,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6576271186440678</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1055,13 +1058,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.647887323943662</v>
+        <v>0.6542372881355932</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1073,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1081,13 +1084,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6461538461538462</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1107,13 +1110,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6420545746388443</v>
+        <v>0.640625</v>
       </c>
       <c r="L17">
-        <v>800</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>800</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1125,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>446</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1133,13 +1136,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6410256410256411</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1151,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1159,13 +1162,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.6324237560192616</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>788</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>788</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1185,13 +1188,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6228571428571429</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L20">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1211,7 +1214,7 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.6176470588235294</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
         <v>42</v>
@@ -1229,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1237,13 +1240,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1255,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1263,13 +1266,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.6122448979591837</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1289,13 +1292,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.6041666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1307,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1315,13 +1318,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5964912280701754</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1341,13 +1344,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1367,13 +1370,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1393,13 +1396,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5384615384615384</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L28">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1419,13 +1422,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5098039215686274</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1437,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1445,13 +1448,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.5076923076923077</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1463,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1471,13 +1474,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.5029940119760479</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L31">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1489,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1497,13 +1500,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4939759036144578</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1523,13 +1526,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4615384615384616</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L33">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1541,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1549,13 +1552,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4567901234567901</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1567,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1575,25 +1578,25 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4473684210526316</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L35">
+        <v>27</v>
+      </c>
+      <c r="M35">
+        <v>27</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>34</v>
-      </c>
-      <c r="M35">
-        <v>34</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1601,13 +1604,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.4444444444444444</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1619,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1627,13 +1630,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.4426229508196721</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1645,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1679,13 +1682,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.4285714285714285</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L39">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1697,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1705,13 +1708,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3870967741935484</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1731,13 +1734,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3855421686746988</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L41">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1749,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1757,13 +1760,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.3533834586466165</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="L42">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M42">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1775,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1783,13 +1786,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.3492063492063492</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1801,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1809,13 +1812,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.3431372549019608</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L44">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M44">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1827,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1835,13 +1838,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.3421052631578947</v>
+        <v>0.3463035019455253</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1853,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>50</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1861,13 +1864,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.3346303501945525</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L46">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1879,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>171</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1887,13 +1890,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.297029702970297</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1905,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1913,13 +1916,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2949640287769784</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L48">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M48">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1931,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1939,13 +1942,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.2685185185185185</v>
+        <v>0.2945205479452055</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1957,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>79</v>
+        <v>515</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1965,13 +1968,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.2684931506849315</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L50">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="M50">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1983,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>534</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1991,13 +1994,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.2516556291390729</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L51">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2009,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2017,13 +2020,13 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.2432432432432433</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2035,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2043,13 +2046,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.2346609257265877</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L53">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="M53">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2061,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>711</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2069,13 +2072,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.2296650717703349</v>
+        <v>0.2378902045209903</v>
       </c>
       <c r="L54">
-        <v>48</v>
+        <v>221</v>
       </c>
       <c r="M54">
-        <v>48</v>
+        <v>221</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2087,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>161</v>
+        <v>708</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2095,13 +2098,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.219047619047619</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2113,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2121,13 +2124,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.2163009404388715</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L56">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M56">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2139,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2147,13 +2150,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1981981981981982</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2165,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2173,13 +2176,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1812080536912752</v>
+        <v>0.1668874172185431</v>
       </c>
       <c r="L58">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="M58">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2191,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>122</v>
+        <v>629</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2199,13 +2202,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1708609271523179</v>
+        <v>0.1611253196930946</v>
       </c>
       <c r="L59">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M59">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2217,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>626</v>
+        <v>656</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2225,13 +2228,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.1624040920716112</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L60">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="M60">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2243,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>655</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2251,13 +2254,13 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.134020618556701</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L61">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M61">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2269,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2277,25 +2280,25 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.1243243243243243</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L62">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N62">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>324</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2303,7 +2306,7 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.1242937853107345</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L63">
         <v>22</v>
@@ -2321,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2329,13 +2332,13 @@
         <v>72</v>
       </c>
       <c r="K64">
-        <v>0.121654501216545</v>
+        <v>0.123989218328841</v>
       </c>
       <c r="L64">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M64">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2347,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>361</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2355,13 +2358,13 @@
         <v>73</v>
       </c>
       <c r="K65">
-        <v>0.1113636363636364</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L65">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M65">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2373,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2381,13 +2384,13 @@
         <v>74</v>
       </c>
       <c r="K66">
-        <v>0.1083743842364532</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L66">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M66">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2399,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>181</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2407,13 +2410,13 @@
         <v>75</v>
       </c>
       <c r="K67">
-        <v>0.0996309963099631</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2425,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2433,13 +2436,13 @@
         <v>76</v>
       </c>
       <c r="K68">
-        <v>0.08771929824561403</v>
+        <v>0.1068181818181818</v>
       </c>
       <c r="L68">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M68">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2451,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>416</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2459,13 +2462,13 @@
         <v>77</v>
       </c>
       <c r="K69">
-        <v>0.07637231503579953</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="L69">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2477,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>387</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2485,25 +2488,25 @@
         <v>78</v>
       </c>
       <c r="K70">
-        <v>0.07460545193687231</v>
+        <v>0.07675438596491228</v>
       </c>
       <c r="L70">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M70">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N70">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>645</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2511,25 +2514,25 @@
         <v>79</v>
       </c>
       <c r="K71">
-        <v>0.06830601092896176</v>
+        <v>0.07173601147776183</v>
       </c>
       <c r="L71">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>341</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2537,25 +2540,25 @@
         <v>80</v>
       </c>
       <c r="K72">
-        <v>0.05975723622782447</v>
+        <v>0.06921241050119331</v>
       </c>
       <c r="L72">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M72">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N72">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>1007</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2563,13 +2566,13 @@
         <v>81</v>
       </c>
       <c r="K73">
-        <v>0.04981549815498155</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L73">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M73">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2581,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>515</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2589,25 +2592,25 @@
         <v>82</v>
       </c>
       <c r="K74">
-        <v>0.04230769230769231</v>
+        <v>0.05135387488328665</v>
       </c>
       <c r="L74">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M74">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N74">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>498</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2615,13 +2618,13 @@
         <v>83</v>
       </c>
       <c r="K75">
-        <v>0.03284356093344858</v>
+        <v>0.04243542435424354</v>
       </c>
       <c r="L75">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M75">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2633,7 +2636,33 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>1119</v>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K76">
+        <v>0.02854671280276817</v>
+      </c>
+      <c r="L76">
+        <v>33</v>
+      </c>
+      <c r="M76">
+        <v>34</v>
+      </c>
+      <c r="N76">
+        <v>0.97</v>
+      </c>
+      <c r="O76">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
